--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/CreateUserData.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/CreateUserData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Java\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\git\repository2\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145922D-49F1-4B02-A8AF-3A6005F4A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57849E82-DCF3-47B9-B7F6-8ACBA0A68384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E52F81F-335B-4C13-A768-92D0AAD12C15}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>Janaki</t>
+    <t>reyan</t>
   </si>
   <si>
-    <t>jani123</t>
+    <t>Vedhika Menon</t>
   </si>
 </sst>
 </file>
@@ -387,9 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE73DD6-D707-481B-816D-FC2904D5DFDF}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -399,10 +397,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
